--- a/data/testing_file.xlsx
+++ b/data/testing_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_profile\TMUproject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_profile\metaboproject\projectV3\periscope_app\program\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0BB808-16F1-40C6-9051-7ACCFB3FC1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4D79BA-6F1B-41FD-A11B-595659F455B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abundance" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="134">
   <si>
     <t>Galactosylation</t>
   </si>
@@ -421,6 +421,26 @@
   </si>
   <si>
     <t>test_subject</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pair_prepost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pair_prepost_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pair_123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pair_123_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unpaired</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -933,28 +953,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A98" sqref="A3:A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -986,7 +1006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1006,7 +1026,7 @@
         <v>8502350.1995626092</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1038,7 +1058,7 @@
         <v>5836738.4851813298</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1070,7 +1090,7 @@
         <v>1137204.9910365499</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1102,7 +1122,7 @@
         <v>715994.02554009703</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1134,7 +1154,7 @@
         <v>1355287.7256968401</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1166,7 +1186,7 @@
         <v>2697734.86673423</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1198,7 +1218,7 @@
         <v>3565287.7965529999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1230,7 +1250,7 @@
         <v>3373664.8724353602</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1262,7 +1282,7 @@
         <v>2382572.65599463</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1294,7 +1314,7 @@
         <v>1605892.4797592</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1326,7 +1346,7 @@
         <v>1969598.0187395399</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1358,7 +1378,7 @@
         <v>1584077.6155455201</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1390,7 +1410,7 @@
         <v>3273467.2151749702</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1422,7 +1442,7 @@
         <v>1615196.6158320101</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1454,7 +1474,7 @@
         <v>2019460.5962981</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1486,7 +1506,7 @@
         <v>761649.49010161497</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1518,7 +1538,7 @@
         <v>685637.98125582002</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1550,7 +1570,7 @@
         <v>856350.18969232298</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1582,7 +1602,7 @@
         <v>2006296.7913244299</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1614,7 +1634,7 @@
         <v>1749582.1553917599</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1646,7 +1666,7 @@
         <v>6389916.9313669996</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1678,7 +1698,7 @@
         <v>1110708.39284728</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1710,7 +1730,7 @@
         <v>278470.45624683698</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1742,7 +1762,7 @@
         <v>4177545.9912448302</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1774,7 +1794,7 @@
         <v>3986888.9011928299</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1806,7 +1826,7 @@
         <v>4141863.9506222</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1838,7 +1858,7 @@
         <v>2646223.0051385602</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1870,7 +1890,7 @@
         <v>2756569.8965175501</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1902,7 +1922,7 @@
         <v>2200929.1550247599</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1934,7 +1954,7 @@
         <v>1729726.0941381699</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1966,7 +1986,7 @@
         <v>2734668.1292536701</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1998,7 +2018,7 @@
         <v>3036302.9275471098</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2030,7 +2050,7 @@
         <v>1343023.63449707</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2062,7 +2082,7 @@
         <v>3356576.7112687598</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2094,7 +2114,7 @@
         <v>815854.59855560097</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -2126,7 +2146,7 @@
         <v>508930.87981534499</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2158,7 +2178,7 @@
         <v>5434733.8105951697</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -2190,7 +2210,7 @@
         <v>2898443.62624283</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -2222,7 +2242,7 @@
         <v>4306848.66251399</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -2254,7 +2274,7 @@
         <v>3018553.0115484898</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -2286,7 +2306,7 @@
         <v>2709430.8986795298</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -2318,7 +2338,7 @@
         <v>1604529.2938164801</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -2350,7 +2370,7 @@
         <v>1202979.8016708</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -2382,7 +2402,7 @@
         <v>1314077.5808174999</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -2414,7 +2434,7 @@
         <v>2271870.6203475902</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -2446,7 +2466,7 @@
         <v>1496671.57785552</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -2478,7 +2498,7 @@
         <v>393419.90378915699</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -2510,7 +2530,7 @@
         <v>1593927.22670812</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -2542,7 +2562,7 @@
         <v>3894301.3684340999</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -2574,7 +2594,7 @@
         <v>1265379.03119854</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -2606,7 +2626,7 @@
         <v>754746.69723728602</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -2638,7 +2658,7 @@
         <v>1392691.83332779</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -2670,7 +2690,7 @@
         <v>2528910.6396678002</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -2702,7 +2722,7 @@
         <v>2312571.3863969999</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -2734,7 +2754,7 @@
         <v>3400727.4927146798</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -2766,7 +2786,7 @@
         <v>3172848.5498068999</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -2798,7 +2818,7 @@
         <v>1172072.07015152</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -2830,7 +2850,7 @@
         <v>2507757.23761281</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>89</v>
       </c>
@@ -2862,7 +2882,7 @@
         <v>1940912.04370991</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -2894,7 +2914,7 @@
         <v>2377782.0013870401</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -2926,7 +2946,7 @@
         <v>1820795.1754357801</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>92</v>
       </c>
@@ -2958,7 +2978,7 @@
         <v>1650442.7176858101</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -2990,7 +3010,7 @@
         <v>2204832.4307224602</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -3022,7 +3042,7 @@
         <v>381125.46723252698</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -3054,7 +3074,7 @@
         <v>1296807.7526450199</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>96</v>
       </c>
@@ -3086,7 +3106,7 @@
         <v>2408811.2160620098</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -3118,7 +3138,7 @@
         <v>6027426.1801306903</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -3150,7 +3170,7 @@
         <v>6474710.0061853305</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -3182,7 +3202,7 @@
         <v>878754.28826500499</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>100</v>
       </c>
@@ -3214,7 +3234,7 @@
         <v>145706.95326309101</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>101</v>
       </c>
@@ -3246,7 +3266,7 @@
         <v>4490905.7442008797</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>102</v>
       </c>
@@ -3278,7 +3298,7 @@
         <v>4599404.9025242003</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -3310,7 +3330,7 @@
         <v>4150599.0334791299</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>104</v>
       </c>
@@ -3342,7 +3362,7 @@
         <v>3488050.8921989598</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>105</v>
       </c>
@@ -3374,7 +3394,7 @@
         <v>2656750.53658093</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -3406,7 +3426,7 @@
         <v>741334.88420021895</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>107</v>
       </c>
@@ -3438,7 +3458,7 @@
         <v>4466774.4583519399</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>108</v>
       </c>
@@ -3470,7 +3490,7 @@
         <v>2527193.6210384401</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>109</v>
       </c>
@@ -3502,7 +3522,7 @@
         <v>2391454.36450523</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>110</v>
       </c>
@@ -3534,7 +3554,7 @@
         <v>2319762.44636718</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>111</v>
       </c>
@@ -3566,7 +3586,7 @@
         <v>3794555.67382725</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>112</v>
       </c>
@@ -3598,7 +3618,7 @@
         <v>1445790.18164253</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -3630,7 +3650,7 @@
         <v>3395521.4509231402</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>114</v>
       </c>
@@ -3662,7 +3682,7 @@
         <v>636915.77713452897</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>115</v>
       </c>
@@ -3694,7 +3714,7 @@
         <v>615202.26981661399</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>116</v>
       </c>
@@ -3726,7 +3746,7 @@
         <v>5552000.89871052</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>117</v>
       </c>
@@ -3758,7 +3778,7 @@
         <v>3336136.25355954</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>118</v>
       </c>
@@ -3790,7 +3810,7 @@
         <v>4332186.4255725397</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>119</v>
       </c>
@@ -3822,7 +3842,7 @@
         <v>4223976.1665656902</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>120</v>
       </c>
@@ -3854,7 +3874,7 @@
         <v>4793716.8007428003</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>121</v>
       </c>
@@ -3886,7 +3906,7 @@
         <v>2417582.6772664501</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -3918,7 +3938,7 @@
         <v>1226835.1415579501</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>123</v>
       </c>
@@ -3950,7 +3970,7 @@
         <v>1145238.3171222101</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -3982,7 +4002,7 @@
         <v>1828309.7459646501</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>125</v>
       </c>
@@ -4014,7 +4034,7 @@
         <v>1423259.14206038</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -4046,7 +4066,7 @@
         <v>290219.88671616302</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -4078,7 +4098,7 @@
         <v>660761.801793747</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
@@ -4110,7 +4130,7 @@
         <v>2175097.5188332698</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -4142,7 +4162,7 @@
         <v>1641630.3335985399</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>12</v>
       </c>
@@ -4174,7 +4194,7 @@
         <v>1610467.4819461501</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>13</v>
       </c>
@@ -4206,7 +4226,7 @@
         <v>1545173.2709101499</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>14</v>
       </c>
@@ -4238,7 +4258,7 @@
         <v>1773318.8010555201</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>15</v>
       </c>
@@ -4270,7 +4290,7 @@
         <v>1514306.04497782</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>16</v>
       </c>
@@ -4302,7 +4322,7 @@
         <v>1462048.8395631199</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
@@ -4334,7 +4354,7 @@
         <v>1530045.7010385599</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>18</v>
       </c>
@@ -4366,7 +4386,7 @@
         <v>1606084.2082594601</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>19</v>
       </c>
@@ -4398,34 +4418,34 @@
         <v>3389191.7286818</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
     </row>
   </sheetData>
@@ -4442,39 +4462,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55FBFBF-79BA-427C-9468-D83E1004D242}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4494,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4514,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4534,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4554,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4574,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -4594,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -4614,7 +4634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -4634,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -4654,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -4674,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -4694,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -4714,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -4734,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -4754,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -4774,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -4794,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -4814,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -4834,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -4854,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -4874,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -4894,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -4914,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -4934,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -4954,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -4974,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -4994,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -5014,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -5034,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -5054,7 +5074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -5074,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -5094,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -5114,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -5134,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -5154,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -5174,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -5194,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -5214,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -5234,7 +5254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -5254,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -5274,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -5294,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -5314,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -5334,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -5354,7 +5374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -5374,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -5394,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -5414,7 +5434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -5434,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -5454,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -5474,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -5494,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -5514,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -5534,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -5554,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -5574,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -5594,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -5614,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -5634,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>89</v>
       </c>
@@ -5654,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -5674,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>91</v>
       </c>
@@ -5694,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>92</v>
       </c>
@@ -5714,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -5734,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -5754,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -5774,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -5794,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -5814,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -5834,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -5854,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -5874,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -5894,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -5914,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -5934,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -5954,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>105</v>
       </c>
@@ -5974,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -5994,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -6014,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -6034,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -6054,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -6074,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -6094,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -6114,7 +6134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -6134,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>114</v>
       </c>
@@ -6154,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>115</v>
       </c>
@@ -6174,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -6194,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>117</v>
       </c>
@@ -6214,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>118</v>
       </c>
@@ -6234,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -6254,7 +6274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>120</v>
       </c>
@@ -6274,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>121</v>
       </c>
@@ -6294,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>122</v>
       </c>
@@ -6314,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>123</v>
       </c>
@@ -6334,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -6354,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>125</v>
       </c>
@@ -6374,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -6409,15 +6429,15 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -6437,7 +6457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -6457,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -6477,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -6497,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -6517,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -6537,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -6557,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -6577,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -6597,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -6617,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -6637,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -6657,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -6677,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -6697,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -6717,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -6737,7 +6757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -6757,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -6777,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -6797,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -6817,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -6837,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -6857,7 +6877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -6877,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -6897,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -6917,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -6937,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -6957,7 +6977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -6977,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -6997,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -7017,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -7037,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -7057,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -7077,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -7097,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -7117,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -7137,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -7157,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -7177,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -7197,7 +7217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -7217,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -7237,7 +7257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -7257,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -7277,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -7297,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -7317,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -7337,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -7357,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -7377,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -7397,7 +7417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -7417,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -7437,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -7457,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -7490,6 +7510,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100158532F5F40BC640834912557DC5CC5D" ma:contentTypeVersion="3" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="c8b2707016caf90a9b64a6afa55dcbc5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbf846ee-4ff7-4a7c-b44a-e13964c3ea2f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="261b8ac31ffea7894e3dd0a9851e548f" ns2:_="">
     <xsd:import namespace="cbf846ee-4ff7-4a7c-b44a-e13964c3ea2f"/>
@@ -7627,15 +7656,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F870CC16-357C-4A62-AE97-F971AFD69B8E}">
   <ds:schemaRefs>
@@ -7646,6 +7666,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{061E9C11-04CA-4F17-96EF-882EB3E8220B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9640CD5A-060F-4922-9FE7-0C722E94A795}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7661,12 +7689,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{061E9C11-04CA-4F17-96EF-882EB3E8220B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>